--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ravin\Documents\DATA ANALYSIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dell-my.sharepoint.com/personal/shiv_ravinder_singh_dellteam_com/Documents/Documents/web development program/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B3E549-AD6F-4A2A-ABD7-20D2A3E5E310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C8B3E549-AD6F-4A2A-ABD7-20D2A3E5E310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{861D2F6E-D553-4E80-AC85-624CDBD13AE5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="21600" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,9 +349,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
